--- a/Documentacion/Mediciones.xlsx
+++ b/Documentacion/Mediciones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
   <si>
     <t>Motor</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Luego de  min de pruebas el motor llego a un maximo de 60ºC</t>
+  </si>
+  <si>
+    <t>Adelanto</t>
+  </si>
+  <si>
+    <t>Pierde un 50% de los zcd</t>
+  </si>
+  <si>
+    <t>Pierde un 40% de los zcd</t>
   </si>
 </sst>
 </file>
@@ -199,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -211,6 +220,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -220,20 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,1536 +525,1774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6">
         <v>110</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>22</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>0.39</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>23.1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>0.8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>1101</v>
       </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4:I20" si="0">H4*60</f>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J20" si="0">I4*60</f>
         <v>66060</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="K4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
         <v>120</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>26</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.42</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>23.1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>0.8</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1185</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>71100</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
         <v>130</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>32</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.49</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>24</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>0.8</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>1256</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>75360</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
         <v>140</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>39</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.54</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>23.8</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>0.8</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>1412</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>84720</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
         <v>145</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>42</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>23.8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>0.8</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1428</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>85680</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
         <v>150</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>46</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>0.61</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>24</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>0.8</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>1344</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>80640</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
         <v>160</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>80</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>0.8</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>26</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>0.8</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>1412</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>84720</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6">
         <v>110</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>20</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>0.36</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>23.6</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>0.6</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>1050</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
         <v>120</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>24</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>0.39</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>24</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>0.6</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>1121</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>67260</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
         <v>130</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>27</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>0.42</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>24.1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>0.6</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>1185</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>71100</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
         <v>140</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>31</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>0.45</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>24.3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>0.6</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>1244</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>74640</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
         <v>150</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>37</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>0.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>24.6</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>0.6</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>1344</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>80640</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
         <v>160</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>40</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>0.51</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>24.9</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>0.6</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>1359</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>81540</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
         <v>170</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>45</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>0.53</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>25.1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>0.6</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>1404</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>84240</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
         <v>175</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>48</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>25.5</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>0.6</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>1428</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>85680</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
         <v>180</v>
       </c>
-      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="5">
+      <c r="G19" s="4"/>
+      <c r="H19" s="5">
         <v>0.6</v>
       </c>
-      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6">
         <v>110</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <v>14</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <v>0.25</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <v>23.7</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>0.4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>862</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <f t="shared" si="0"/>
         <v>51720</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
         <v>120</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>16</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>23.9</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>0.4</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>954</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" ref="I21:I38" si="1">H21*60</f>
+      <c r="J21" s="2">
+        <f t="shared" ref="J21:J38" si="1">I21*60</f>
         <v>57240</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
         <v>130</v>
       </c>
-      <c r="D22" s="2">
-        <v>19</v>
-      </c>
       <c r="E22" s="2">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2">
         <v>0.31</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>24.2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>0.4</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>1020</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <f t="shared" si="1"/>
         <v>61200</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2">
         <v>140</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>24</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>0.35</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>24.5</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>0.4</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>1111</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
         <v>66660</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2">
         <v>150</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>30</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>0.41</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>24.9</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>0.4</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>1208</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <f t="shared" si="1"/>
         <v>72480</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2">
         <v>160</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>33</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>0.43</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>25.2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>0.4</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>1250</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <f t="shared" si="1"/>
         <v>75000</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2">
         <v>170</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>37</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>0.45</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>25.7</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>0.4</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>1302</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <f t="shared" si="1"/>
         <v>78120</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2">
         <v>180</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>40</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>0.47</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>25.4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>0.4</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>1337</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <f t="shared" si="1"/>
         <v>80220</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2">
         <v>190</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>44</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>0.48</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>25.9</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>0.4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>1400</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <f t="shared" si="1"/>
         <v>84000</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
         <v>200</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>48</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>0.5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>26.2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>0.4</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>1397</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>83820</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2">
         <v>210</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>54</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>0.52</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>25.3</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>0.4</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>1428</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <f t="shared" si="1"/>
         <v>85680</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4">
         <v>220</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>59</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>27</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>0.4</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>1453</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>87180</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>1</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="14">
+      <c r="K31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11">
         <v>110</v>
       </c>
-      <c r="D32" s="14">
+      <c r="E32" s="11">
         <v>17</v>
       </c>
-      <c r="E32" s="14">
+      <c r="F32" s="11">
         <v>0.3</v>
       </c>
-      <c r="F32" s="14">
+      <c r="G32" s="11">
         <v>25.9</v>
       </c>
-      <c r="G32" s="7">
+      <c r="H32" s="7">
         <v>0.5</v>
       </c>
-      <c r="H32" s="14">
+      <c r="I32" s="11">
         <v>912</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <f t="shared" si="1"/>
         <v>54720</v>
       </c>
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="14">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="11">
         <v>120</v>
       </c>
-      <c r="D33" s="14">
+      <c r="E33" s="11">
         <v>21</v>
       </c>
-      <c r="E33" s="14">
+      <c r="F33" s="11">
         <v>0.34</v>
       </c>
-      <c r="F33" s="14">
+      <c r="G33" s="11">
         <v>26</v>
       </c>
-      <c r="G33" s="15">
+      <c r="H33" s="12">
         <v>0.5</v>
       </c>
-      <c r="H33" s="14">
+      <c r="I33" s="11">
         <v>992</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="1"/>
         <v>59520</v>
       </c>
-      <c r="J33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="11">
         <v>140</v>
       </c>
-      <c r="D34" s="14">
+      <c r="E34" s="11">
         <v>32</v>
       </c>
-      <c r="E34" s="14">
+      <c r="F34" s="11">
         <v>0.44</v>
       </c>
-      <c r="F34" s="14">
+      <c r="G34" s="11">
         <v>25.8</v>
       </c>
-      <c r="G34" s="15">
+      <c r="H34" s="12">
         <v>0.5</v>
       </c>
-      <c r="H34" s="14">
+      <c r="I34" s="11">
         <v>1163</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="1"/>
         <v>69780</v>
       </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="11">
         <v>160</v>
       </c>
-      <c r="D35" s="14">
+      <c r="E35" s="11">
         <v>40</v>
       </c>
-      <c r="E35" s="14">
+      <c r="F35" s="11">
         <v>0.49</v>
       </c>
-      <c r="F35" s="14">
+      <c r="G35" s="11">
         <v>26</v>
       </c>
-      <c r="G35" s="15">
+      <c r="H35" s="12">
         <v>0.5</v>
       </c>
-      <c r="H35" s="14">
+      <c r="I35" s="11">
         <v>1256</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="1"/>
         <v>75360</v>
       </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="14">
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="11">
         <v>180</v>
       </c>
-      <c r="D36" s="14">
+      <c r="E36" s="11">
         <v>50</v>
       </c>
-      <c r="E36" s="14">
+      <c r="F36" s="11">
         <v>0.54</v>
       </c>
-      <c r="F36" s="14">
+      <c r="G36" s="11">
         <v>26.6</v>
       </c>
-      <c r="G36" s="15">
+      <c r="H36" s="12">
         <v>0.5</v>
       </c>
-      <c r="H36" s="14">
+      <c r="I36" s="11">
         <v>1330</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="1"/>
         <v>79800</v>
       </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="11">
         <v>200</v>
       </c>
-      <c r="D37" s="14">
+      <c r="E37" s="11">
         <v>65</v>
       </c>
-      <c r="E37" s="14">
+      <c r="F37" s="11">
         <v>0.62</v>
       </c>
-      <c r="F37" s="14">
+      <c r="G37" s="11">
         <v>29</v>
       </c>
-      <c r="G37" s="15">
+      <c r="H37" s="12">
         <v>0.5</v>
       </c>
-      <c r="H37" s="14">
+      <c r="I37" s="11">
         <v>1412</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="1"/>
         <v>84720</v>
       </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="14">
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="11">
         <v>220</v>
       </c>
-      <c r="G38" s="15">
+      <c r="H38" s="12">
         <v>0.5</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="13">
         <v>2</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="18">
+      <c r="C39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="13">
         <v>110</v>
       </c>
-      <c r="D39" s="18">
+      <c r="E39" s="13">
         <v>33</v>
       </c>
-      <c r="E39" s="18">
+      <c r="F39" s="13">
         <v>0.53</v>
       </c>
-      <c r="F39" s="18">
+      <c r="G39" s="13">
         <v>27.7</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H39" s="7">
         <v>0.8</v>
       </c>
-      <c r="H39" s="18">
+      <c r="I39" s="13">
         <v>1131</v>
       </c>
-      <c r="I39" s="6">
-        <f>H39*60</f>
+      <c r="J39" s="6">
+        <f>I39*60</f>
         <v>67860</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
         <v>2</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2">
         <v>120</v>
       </c>
-      <c r="D40" s="14">
+      <c r="E40" s="11">
         <v>41</v>
       </c>
-      <c r="E40" s="14">
+      <c r="F40" s="11">
         <v>0.61</v>
       </c>
-      <c r="F40" s="14">
+      <c r="G40" s="11">
         <v>28.5</v>
       </c>
-      <c r="G40" s="20">
+      <c r="H40" s="14">
         <v>0.8</v>
       </c>
-      <c r="H40" s="14">
+      <c r="I40" s="11">
         <v>1238</v>
       </c>
-      <c r="I40" s="2">
-        <f>H40*60</f>
+      <c r="J40" s="2">
+        <f>I40*60</f>
         <v>74280</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="17"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="K40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
         <v>2</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2">
         <v>125</v>
       </c>
-      <c r="D41" s="14">
+      <c r="E41" s="11">
         <v>43</v>
       </c>
-      <c r="E41" s="14">
+      <c r="F41" s="11">
         <v>0.63</v>
       </c>
-      <c r="F41" s="14">
+      <c r="G41" s="11">
         <v>29.2</v>
       </c>
-      <c r="G41" s="20">
+      <c r="H41" s="14">
         <v>0.8</v>
       </c>
-      <c r="H41" s="14">
+      <c r="I41" s="11">
         <v>1269</v>
       </c>
-      <c r="I41" s="2">
-        <f t="shared" ref="I41:I47" si="2">H41*60</f>
+      <c r="J41" s="2">
+        <f t="shared" ref="J41:J47" si="2">I41*60</f>
         <v>76140</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="K41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
         <v>2</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="4">
         <v>130</v>
       </c>
-      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="21">
+      <c r="G42" s="4"/>
+      <c r="H42" s="15">
         <v>0.8</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="19"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="13">
         <v>2</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="18">
+      <c r="C43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="13">
         <v>110</v>
       </c>
-      <c r="D43" s="18">
-        <v>19</v>
-      </c>
-      <c r="E43" s="18">
+      <c r="E43" s="13">
+        <v>19</v>
+      </c>
+      <c r="F43" s="13">
         <v>0.33</v>
       </c>
-      <c r="F43" s="18">
+      <c r="G43" s="13">
         <v>28.2</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H43" s="7">
         <v>0.4</v>
       </c>
-      <c r="H43" s="18">
+      <c r="I43" s="13">
         <v>905</v>
       </c>
-      <c r="I43" s="6">
-        <f>H43*60</f>
+      <c r="J43" s="6">
+        <f>I43*60</f>
         <v>54300</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
         <v>2</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
         <v>120</v>
       </c>
-      <c r="D44" s="14">
+      <c r="E44" s="11">
         <v>23</v>
       </c>
-      <c r="E44" s="14">
+      <c r="F44" s="11">
         <v>0.37</v>
       </c>
-      <c r="F44" s="14">
+      <c r="G44" s="11">
         <v>28.5</v>
       </c>
-      <c r="G44" s="20">
+      <c r="H44" s="14">
         <v>0.4</v>
       </c>
-      <c r="H44" s="14">
+      <c r="I44" s="11">
         <v>965</v>
       </c>
-      <c r="I44" s="2">
-        <f>H44*60</f>
+      <c r="J44" s="2">
+        <f>I44*60</f>
         <v>57900</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="K44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
         <v>2</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
         <v>180</v>
       </c>
-      <c r="D45" s="14">
+      <c r="E45" s="11">
         <v>58</v>
       </c>
-      <c r="E45" s="14">
+      <c r="F45" s="11">
         <v>0.62</v>
       </c>
-      <c r="F45" s="14">
+      <c r="G45" s="11">
         <v>31.3</v>
       </c>
-      <c r="G45" s="20">
+      <c r="H45" s="14">
         <v>0.4</v>
       </c>
-      <c r="H45" s="14">
+      <c r="I45" s="11">
         <v>1351</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <f t="shared" si="2"/>
         <v>81060</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="K45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
         <v>2</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="14">
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="11">
         <v>200</v>
       </c>
-      <c r="D46" s="14">
+      <c r="E46" s="11">
         <v>74</v>
       </c>
-      <c r="E46" s="14">
+      <c r="F46" s="11">
         <v>0.69</v>
       </c>
-      <c r="F46" s="14">
+      <c r="G46" s="11">
         <v>32</v>
       </c>
-      <c r="G46" s="20">
+      <c r="H46" s="14">
         <v>0.4</v>
       </c>
-      <c r="H46" s="14">
+      <c r="I46" s="11">
         <v>1389</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <f t="shared" si="2"/>
         <v>83340</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="K46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
         <v>2</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4">
         <v>200</v>
       </c>
-      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="21">
+      <c r="G47" s="4"/>
+      <c r="H47" s="15">
         <v>0.4</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="13"/>
+      <c r="L47" s="21"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>44431</v>
+      </c>
+      <c r="B51" s="13">
+        <v>3</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="13">
+        <v>220</v>
+      </c>
+      <c r="E51" s="13">
+        <v>68</v>
+      </c>
+      <c r="F51" s="13">
+        <f>120/4+120/16</f>
+        <v>37.5</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I51" s="13">
+        <v>1330</v>
+      </c>
+      <c r="J51" s="6">
+        <f>I51*60</f>
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>44431</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2">
+        <v>220</v>
+      </c>
+      <c r="E52" s="11">
+        <v>69</v>
+      </c>
+      <c r="F52" s="11">
+        <f>120/4+120/32</f>
+        <v>33.75</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="14">
+        <f>20/50</f>
+        <v>0.4</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1260</v>
+      </c>
+      <c r="J52" s="2">
+        <f>I52*60</f>
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>44431</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="11">
+        <v>220</v>
+      </c>
+      <c r="E53" s="11">
+        <v>33</v>
+      </c>
+      <c r="F53" s="11">
+        <f>120/4+120/8</f>
+        <v>45</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="2">
+        <f>I53*60</f>
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>44431</v>
+      </c>
+      <c r="B54" s="11">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="11">
+        <v>220</v>
+      </c>
+      <c r="E54" s="11">
+        <v>34</v>
+      </c>
+      <c r="F54" s="11">
+        <f>120*(1/4+1/8-1/32)</f>
+        <v>41.25</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="I54" s="11">
+        <v>1130</v>
+      </c>
+      <c r="J54" s="2">
+        <f>I54*60</f>
+        <v>67800</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>44431</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2">
+        <v>220</v>
+      </c>
+      <c r="E55" s="11">
+        <v>66</v>
+      </c>
+      <c r="F55" s="11">
+        <f>120*(1/4+1/16+1/64)</f>
+        <v>39.375</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="14">
+        <f>20/50</f>
+        <v>0.4</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1360</v>
+      </c>
+      <c r="J55" s="2">
+        <f>I55*60</f>
+        <v>81600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>44431</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2">
+        <v>220</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="14">
+        <f>20/50</f>
+        <v>0.4</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="2">
+        <f>I56*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>44431</v>
+      </c>
+      <c r="B57" s="4">
+        <v>3</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="4">
+        <v>220</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
+        <f>I57*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>72</v>
+      </c>
+      <c r="H59" s="12">
+        <f>15/25</f>
+        <v>0.6</v>
+      </c>
+      <c r="I59">
+        <v>1510</v>
+      </c>
+      <c r="J59">
+        <f>I59*60</f>
+        <v>90600</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="K20:K31"/>
-    <mergeCell ref="K11:K19"/>
-    <mergeCell ref="K5:K10"/>
-    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="L20:L31"/>
+    <mergeCell ref="L11:L19"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="L32:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentacion/Mediciones.xlsx
+++ b/Documentacion/Mediciones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="26">
   <si>
     <t>Motor</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Adelanto</t>
-  </si>
-  <si>
-    <t>Pierde un 50% de los zcd</t>
-  </si>
-  <si>
-    <t>Pierde un 40% de los zcd</t>
   </si>
 </sst>
 </file>
@@ -208,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -225,6 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +642,7 @@
       <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -683,7 +678,7 @@
       <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
@@ -717,7 +712,7 @@
       <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
@@ -751,7 +746,7 @@
       <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
@@ -785,7 +780,7 @@
       <c r="K9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
@@ -819,7 +814,7 @@
       <c r="K10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -853,7 +848,7 @@
       <c r="K11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -889,7 +884,7 @@
       <c r="K12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -923,7 +918,7 @@
       <c r="K13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -957,7 +952,7 @@
       <c r="K14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -991,7 +986,7 @@
       <c r="K15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -1025,7 +1020,7 @@
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -1059,7 +1054,7 @@
       <c r="K17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -1093,7 +1088,7 @@
       <c r="K18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
@@ -1116,7 +1111,7 @@
       <c r="K19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
@@ -1150,7 +1145,7 @@
       <c r="K20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1186,7 +1181,7 @@
       <c r="K21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
@@ -1220,7 +1215,7 @@
       <c r="K22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="20"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
@@ -1254,7 +1249,7 @@
       <c r="K23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="20"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
@@ -1288,7 +1283,7 @@
       <c r="K24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="20"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
@@ -1322,7 +1317,7 @@
       <c r="K25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="20"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
@@ -1356,7 +1351,7 @@
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="20"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
@@ -1390,7 +1385,7 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="20"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -1424,7 +1419,7 @@
       <c r="K28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="20"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -1458,7 +1453,7 @@
       <c r="K29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="20"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -1492,7 +1487,7 @@
       <c r="K30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="20"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
@@ -1526,7 +1521,7 @@
       <c r="K31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="21"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -1560,7 +1555,7 @@
       <c r="K32" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1596,7 +1591,7 @@
       <c r="K33" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34">
@@ -1630,7 +1625,7 @@
       <c r="K34" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35">
@@ -1664,7 +1659,7 @@
       <c r="K35" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="17"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36">
@@ -1698,7 +1693,7 @@
       <c r="K36" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="17"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37">
@@ -1732,7 +1727,7 @@
       <c r="K37" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="17"/>
+      <c r="L37" s="18"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38">
@@ -1751,7 +1746,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L38" s="17"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
@@ -1785,7 +1780,7 @@
       <c r="K39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1821,7 +1816,7 @@
       <c r="K40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="17"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -1855,7 +1850,7 @@
       <c r="K41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L41" s="17"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
@@ -1881,7 +1876,7 @@
       <c r="K42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="18"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
@@ -1915,7 +1910,7 @@
       <c r="K43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1951,7 +1946,7 @@
       <c r="K44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="20"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
@@ -1985,7 +1980,7 @@
       <c r="K45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L45" s="20"/>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -2019,7 +2014,7 @@
       <c r="K46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="20"/>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
@@ -2045,148 +2040,139 @@
       <c r="K47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="21"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="22"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>220</v>
+      </c>
+      <c r="E51">
+        <v>80</v>
+      </c>
+      <c r="F51">
+        <f>120*(1/4-1/32)</f>
+        <v>26.25</v>
+      </c>
+      <c r="H51" s="14">
+        <f t="shared" ref="H51:H60" si="3">12/25</f>
+        <v>0.48</v>
+      </c>
+      <c r="I51">
+        <v>1100</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:J52" si="4">I51*60</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>220</v>
+      </c>
+      <c r="E52">
+        <v>78</v>
+      </c>
+      <c r="F52">
+        <f>120*(1/4)</f>
+        <v>30</v>
+      </c>
+      <c r="H52" s="14">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="I52">
+        <v>1200</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
         <v>44431</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B53" s="2">
         <v>3</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="13">
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2">
         <v>220</v>
       </c>
-      <c r="E51" s="13">
-        <v>68</v>
-      </c>
-      <c r="F51" s="13">
+      <c r="E53" s="11">
+        <v>72</v>
+      </c>
+      <c r="F53" s="11">
+        <f>120/4+120/32</f>
+        <v>33.75</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="14">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="I53" s="11">
+        <v>1270</v>
+      </c>
+      <c r="J53" s="2">
+        <f>I53*60</f>
+        <v>76200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>44431</v>
+      </c>
+      <c r="B54" s="13">
+        <v>3</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="13">
+        <v>220</v>
+      </c>
+      <c r="E54" s="13">
+        <v>60</v>
+      </c>
+      <c r="F54" s="13">
         <f>120/4+120/16</f>
         <v>37.5</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="I51" s="13">
-        <v>1330</v>
-      </c>
-      <c r="J51" s="6">
-        <f>I51*60</f>
-        <v>79800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
-        <v>44431</v>
-      </c>
-      <c r="B52" s="2">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="2">
-        <v>220</v>
-      </c>
-      <c r="E52" s="11">
-        <v>69</v>
-      </c>
-      <c r="F52" s="11">
-        <f>120/4+120/32</f>
-        <v>33.75</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="14">
-        <f>20/50</f>
-        <v>0.4</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1260</v>
-      </c>
-      <c r="J52" s="2">
-        <f>I52*60</f>
-        <v>75600</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
-        <v>44431</v>
-      </c>
-      <c r="B53" s="11">
-        <v>3</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="11">
-        <v>220</v>
-      </c>
-      <c r="E53" s="11">
-        <v>33</v>
-      </c>
-      <c r="F53" s="11">
-        <f>120/4+120/8</f>
-        <v>45</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="2">
-        <f>I53*60</f>
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
-        <v>44431</v>
-      </c>
-      <c r="B54" s="11">
-        <v>3</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="11">
-        <v>220</v>
-      </c>
-      <c r="E54" s="11">
-        <v>34</v>
-      </c>
-      <c r="F54" s="11">
-        <f>120*(1/4+1/8-1/32)</f>
-        <v>41.25</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="I54" s="11">
-        <v>1130</v>
-      </c>
-      <c r="J54" s="2">
-        <f>I54*60</f>
-        <v>67800</v>
-      </c>
-      <c r="K54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="G54" s="13"/>
+      <c r="H54" s="7">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="I54" s="13">
+        <v>1380</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" ref="J54:J60" si="5">I54*60</f>
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
         <v>44431</v>
       </c>
       <c r="B55" s="2">
@@ -2199,7 +2185,7 @@
         <v>220</v>
       </c>
       <c r="E55" s="11">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F55" s="11">
         <f>120*(1/4+1/16+1/64)</f>
@@ -2207,83 +2193,177 @@
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="14">
-        <f>20/50</f>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0.48</v>
       </c>
       <c r="I55" s="11">
-        <v>1360</v>
+        <v>1300</v>
       </c>
       <c r="J55" s="2">
         <f>I55*60</f>
-        <v>81600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
         <v>44431</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="11">
         <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="11">
         <v>220</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="E56" s="11">
+        <v>62</v>
+      </c>
+      <c r="F56" s="11">
+        <f>120*(1/4+1/8-1/32)</f>
+        <v>41.25</v>
+      </c>
       <c r="G56" s="11"/>
       <c r="H56" s="14">
-        <f>20/50</f>
-        <v>0.4</v>
-      </c>
-      <c r="I56" s="11"/>
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1300</v>
+      </c>
       <c r="J56" s="2">
-        <f>I56*60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+        <f t="shared" si="5"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
         <v>44431</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="11">
         <v>3</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="11">
         <v>220</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11">
+        <f>120/4+120/8</f>
+        <v>45</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="14">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="2">
         <f>I57*60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E59">
-        <v>72</v>
-      </c>
-      <c r="H59" s="12">
-        <f>15/25</f>
-        <v>0.6</v>
-      </c>
-      <c r="I59">
-        <v>1510</v>
-      </c>
-      <c r="J59">
-        <f>I59*60</f>
-        <v>90600</v>
-      </c>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>44431</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2">
+        <v>220</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11">
+        <f>120*(1/4+1/8+1/64)</f>
+        <v>46.875</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="14">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>44431</v>
+      </c>
+      <c r="B59" s="4">
+        <v>3</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="4">
+        <v>220</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="11">
+        <f>120*(1/4+1/8+1/32)</f>
+        <v>48.75</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="15">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>44432</v>
+      </c>
+      <c r="B60" s="11">
+        <v>3</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="11">
+        <v>220</v>
+      </c>
+      <c r="E60" s="11">
+        <v>64</v>
+      </c>
+      <c r="F60" s="11">
+        <f>120*(1/4+1/16+1/64)</f>
+        <v>39.375</v>
+      </c>
+      <c r="G60" s="11">
+        <v>32</v>
+      </c>
+      <c r="H60" s="14">
+        <f>18/25</f>
+        <v>0.72</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1460</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="5"/>
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>60</v>
+      </c>
+      <c r="H61" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
